--- a/test-page/ig/StructureDefinition-dueTo-tumor-pathology-event.xlsx
+++ b/test-page/ig/StructureDefinition-dueTo-tumor-pathology-event.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T12:21:48+00:00</t>
+    <t>2024-09-13T13:09:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-page/ig/StructureDefinition-dueTo-tumor-pathology-event.xlsx
+++ b/test-page/ig/StructureDefinition-dueTo-tumor-pathology-event.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T13:09:48+00:00</t>
+    <t>2024-09-13T13:57:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-page/ig/StructureDefinition-dueTo-tumor-pathology-event.xlsx
+++ b/test-page/ig/StructureDefinition-dueTo-tumor-pathology-event.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-13T13:57:40+00:00</t>
+    <t>2024-09-16T07:30:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-page/ig/StructureDefinition-dueTo-tumor-pathology-event.xlsx
+++ b/test-page/ig/StructureDefinition-dueTo-tumor-pathology-event.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T07:30:20+00:00</t>
+    <t>2024-09-16T07:42:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-page/ig/StructureDefinition-dueTo-tumor-pathology-event.xlsx
+++ b/test-page/ig/StructureDefinition-dueTo-tumor-pathology-event.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-16T07:42:16+00:00</t>
+    <t>2025-01-14T13:38:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-page/ig/StructureDefinition-dueTo-tumor-pathology-event.xlsx
+++ b/test-page/ig/StructureDefinition-dueTo-tumor-pathology-event.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T13:38:58+00:00</t>
+    <t>2025-01-17T14:32:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/test-page/ig/StructureDefinition-dueTo-tumor-pathology-event.xlsx
+++ b/test-page/ig/StructureDefinition-dueTo-tumor-pathology-event.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-17T14:32:11+00:00</t>
+    <t>2025-01-17T14:33:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
